--- a/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">_requirements</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -85,16 +88,25 @@
     <t xml:space="preserve">z0bug.fiscalpos_rc</t>
   </si>
   <si>
+    <t xml:space="preserve">l10n_it_reverse_charge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reverse charge locale</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_sp</t>
   </si>
   <si>
+    <t xml:space="preserve">l10n_it_split_payment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Split Payment</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_dichiarazione_intento or l10n_it_lettera_intento</t>
   </si>
   <si>
     <t xml:space="preserve">Lettera d'intento</t>
@@ -200,21 +212,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,88 +261,100 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.sale</t>
+    <t xml:space="preserve">z0bug.jou_inv</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_rc</t>
@@ -215,10 +215,10 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.6"/>

--- a/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,6 +116,162 @@
   </si>
   <si>
     <t xml:space="preserve">IVA al 4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS AT - Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS BE – Belgio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_bg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS BG – Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_cy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS CY – Cipro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_cz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS CZ – Rep. Ceca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS DE – Germania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS DK – Danimarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS EE – Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS EL – Grecia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS ES – Spagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS FI – Finlandia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS FR – Francia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS HR – Croazia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS HU – Ungheria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS IE – Eire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS LT – Lituania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS LU – Lussemburgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_lv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS LV – Lettonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_mt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS MT – Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS NL – Paesi Bassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS PL – Polonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS PT – Portogallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS RO – Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS SE – Svezia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS SI – Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_sk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS SK – Slovacchia</t>
   </si>
 </sst>
 </file>
@@ -212,13 +368,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.6"/>
@@ -357,6 +513,292 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_inv</t>
+    <t xml:space="preserve">z0bug.jou_arc</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_rc</t>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -302,6 +302,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,8 +351,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,11 +379,11 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9:F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.6"/>
@@ -459,7 +468,7 @@
       <c r="J4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">_requirements</t>
   </si>
   <si>
+    <t xml:space="preserve">sequence</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -118,6 +121,30 @@
     <t xml:space="preserve">IVA al 4%</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.fiscalpos_fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS FR – Francia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS DE – Germania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS ES – Spagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-OSS SI – Slovenia</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.fiscalpos_at</t>
   </si>
   <si>
@@ -148,12 +175,6 @@
     <t xml:space="preserve">EU-OSS CZ – Rep. Ceca</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.fiscalpos_de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU-OSS DE – Germania</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.fiscalpos_dk</t>
   </si>
   <si>
@@ -172,24 +193,12 @@
     <t xml:space="preserve">EU-OSS EL – Grecia</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.fiscalpos_es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU-OSS ES – Spagna</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.fiscalpos_fi</t>
   </si>
   <si>
     <t xml:space="preserve">EU-OSS FI – Finlandia</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.fiscalpos_fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU-OSS FR – Francia</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.fiscalpos_hr</t>
   </si>
   <si>
@@ -260,12 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">EU-OSS SE – Svezia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.fiscalpos_si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU-OSS SI – Slovenia</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_sk</t>
@@ -281,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -302,11 +305,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +354,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,22 +375,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,382 +428,484 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="C3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="C4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>15</v>
+      <c r="C5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="C7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="C9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="C10" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="C11" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="C12" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="C13" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="C14" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="C15" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="C16" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="C17" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="C18" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="C19" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="C20" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="C21" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="C22" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="C23" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="C24" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="C25" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="C26" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="C27" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="C28" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="C29" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="C30" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="C31" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="C32" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="C33" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="C34" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/account_fiscal_position.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -70,31 +70,40 @@
     <t xml:space="preserve">Regime Intra comunitario</t>
   </si>
   <si>
+    <t xml:space="preserve">self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regime Extra comunitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_rc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_reverse_charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse charge locale</t>
+  </si>
+  <si>
     <t xml:space="preserve">local</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.fiscalpos_xx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regime Extra comunitario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.jou_arc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.fiscalpos_rc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_reverse_charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse charge locale</t>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_1</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_sp</t>
@@ -284,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -305,6 +314,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,7 +370,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,11 +393,11 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.6"/>
@@ -391,6 +407,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.1"/>
   </cols>
   <sheetData>
@@ -459,59 +476,74 @@
       <c r="I3" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -519,16 +551,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -536,24 +568,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1</v>
@@ -561,13 +593,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>101</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
@@ -575,13 +607,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>102</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1</v>
@@ -589,13 +621,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>103</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1</v>
@@ -603,13 +635,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>104</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
@@ -617,13 +649,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>105</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1</v>
@@ -631,13 +663,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>106</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1</v>
@@ -645,13 +677,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>107</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1</v>
@@ -659,13 +691,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>108</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1</v>
@@ -673,13 +705,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>109</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1</v>
@@ -687,13 +719,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1</v>
@@ -701,13 +733,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>111</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1</v>
@@ -715,13 +747,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>112</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1</v>
@@ -729,13 +761,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>113</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1</v>
@@ -743,13 +775,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>114</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1</v>
@@ -757,13 +789,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>115</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1</v>
@@ -771,13 +803,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>116</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1</v>
@@ -785,13 +817,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>117</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1</v>
@@ -799,13 +831,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>118</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1</v>
@@ -813,13 +845,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>119</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1</v>
@@ -827,13 +859,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1</v>
@@ -841,13 +873,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>121</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1</v>
@@ -855,13 +887,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>122</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1</v>
@@ -869,13 +901,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>123</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
@@ -883,13 +915,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>124</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1</v>
@@ -897,13 +929,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>125</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1</v>
